--- a/SPI_Communication_Protocol.xlsx
+++ b/SPI_Communication_Protocol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="81">
   <si>
     <t>Direction</t>
   </si>
@@ -39,6 +39,24 @@
   </si>
   <si>
     <t>VPU Pin</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Cmd</t>
+  </si>
+  <si>
+    <t>Value01</t>
+  </si>
+  <si>
+    <t>Value02</t>
+  </si>
+  <si>
+    <t>Checksum</t>
+  </si>
+  <si>
+    <t>Stop</t>
   </si>
   <si>
     <t>*</t>
@@ -254,6 +272,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -275,6 +294,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -340,7 +360,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -361,10 +381,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -377,7 +397,9 @@
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.37244897959184"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.6581632653061"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.90816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="15" min="10" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -405,409 +427,427 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="E11" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="H16" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -815,12 +855,12 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
